--- a/台北畫家管理費資訊.xlsx
+++ b/台北畫家管理費資訊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21840" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="門牌" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="159">
   <si>
     <t>六福路245號</t>
   </si>
@@ -538,6 +538,14 @@
   </si>
   <si>
     <t>2018/05/01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>應收管理費</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1141,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2249,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2260,9 +2268,10 @@
     <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -2281,8 +2290,14 @@
       <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2301,8 +2316,16 @@
       <c r="F2" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="11">
+        <f>DATEDIF(B2,C2,"m")+1</f>
+        <v>6</v>
+      </c>
+      <c r="H2" s="7">
+        <f>(G2*500)+(G2*D2*100)+(G2*E2*50)</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2321,8 +2344,16 @@
       <c r="F3" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G45" si="0">DATEDIF(B3,C3,"m")+1</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H45" si="1">(G3*500)+(G3*D3*100)+(G3*E3*50)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2341,8 +2372,16 @@
       <c r="F4" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2400,16 @@
       <c r="F5" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2381,8 +2428,16 @@
       <c r="F6" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2401,8 +2456,16 @@
       <c r="F7" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2421,8 +2484,16 @@
       <c r="F8" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2441,8 +2512,16 @@
       <c r="F9" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2461,8 +2540,16 @@
       <c r="F10" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2481,8 +2568,16 @@
       <c r="F11" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2501,8 +2596,16 @@
       <c r="F12" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2521,8 +2624,16 @@
       <c r="F13" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2541,8 +2652,16 @@
       <c r="F14" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2561,8 +2680,16 @@
       <c r="F15" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2581,8 +2708,16 @@
       <c r="F16" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2601,8 +2736,16 @@
       <c r="F17" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2621,8 +2764,16 @@
       <c r="F18" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2641,8 +2792,16 @@
       <c r="F19" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2661,8 +2820,16 @@
       <c r="F20" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2681,8 +2848,16 @@
       <c r="F21" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2701,10 +2876,18 @@
       <c r="F22" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>71</v>
@@ -2712,7 +2895,7 @@
       <c r="C23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>0</v>
       </c>
       <c r="E23" s="27">
@@ -2721,10 +2904,18 @@
       <c r="F23" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>71</v>
@@ -2741,10 +2932,18 @@
       <c r="F24" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>71</v>
@@ -2761,50 +2960,74 @@
       <c r="F25" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>71</v>
@@ -2816,15 +3039,23 @@
         <v>0</v>
       </c>
       <c r="E28" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>71</v>
@@ -2836,15 +3067,23 @@
         <v>0</v>
       </c>
       <c r="E29" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>71</v>
@@ -2853,7 +3092,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="27">
         <v>0</v>
@@ -2861,10 +3100,18 @@
       <c r="F30" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>71</v>
@@ -2873,7 +3120,7 @@
         <v>73</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="27">
         <v>0</v>
@@ -2881,10 +3128,18 @@
       <c r="F31" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>71</v>
@@ -2893,18 +3148,26 @@
         <v>73</v>
       </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>71</v>
@@ -2916,76 +3179,106 @@
         <v>1</v>
       </c>
       <c r="E33" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="G33" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="27">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="D34" s="23">
+        <v>0</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0</v>
-      </c>
-      <c r="E35" s="28">
-        <v>0</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G34" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="11">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="11">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>146</v>
@@ -2994,73 +3287,105 @@
         <v>1</v>
       </c>
       <c r="E37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D38" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+      <c r="E39" s="26">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="26">
-        <v>0</v>
-      </c>
-      <c r="E39" s="26">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="C40" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="26">
         <v>0</v>
       </c>
       <c r="E40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="11">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D41" s="26">
         <v>0</v>
@@ -3069,16 +3394,24 @@
         <v>0</v>
       </c>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D42" s="26">
         <v>0</v>
@@ -3087,13 +3420,21 @@
         <v>0</v>
       </c>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>146</v>
@@ -3105,10 +3446,18 @@
         <v>0</v>
       </c>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>145</v>
@@ -3123,10 +3472,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>145</v>
@@ -3141,24 +3498,14 @@
         <v>0</v>
       </c>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="26">
-        <v>0</v>
-      </c>
-      <c r="E46" s="26">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1"/>
+      <c r="G45" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3170,7 +3517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/台北畫家管理費資訊.xlsx
+++ b/台北畫家管理費資訊.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21840" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21840" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="門牌" sheetId="1" r:id="rId1"/>
     <sheet name="應收管理費" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2024繳費狀況" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
   <si>
     <t>六福路245號</t>
   </si>
@@ -546,6 +547,58 @@
   </si>
   <si>
     <t>應收管理費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2月</t>
+  </si>
+  <si>
+    <t>3-4月</t>
+  </si>
+  <si>
+    <t>5-6月</t>
+  </si>
+  <si>
+    <t>7-8月</t>
+  </si>
+  <si>
+    <t>9-10月</t>
+  </si>
+  <si>
+    <t>11-12月</t>
+  </si>
+  <si>
+    <t>A1,B1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>門牌代碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -606,8 +659,22 @@
       <name val="PMingLiu"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,8 +687,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -750,13 +835,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +1012,66 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2257,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2345,11 +2565,11 @@
         <v>114</v>
       </c>
       <c r="G3" s="11">
-        <f t="shared" ref="G3:G45" si="0">DATEDIF(B3,C3,"m")+1</f>
+        <f t="shared" ref="G3:G44" si="0">DATEDIF(B3,C3,"m")+1</f>
         <v>6</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H45" si="1">(G3*500)+(G3*D3*100)+(G3*E3*50)</f>
+        <f t="shared" ref="H3:H44" si="1">(G3*500)+(G3*D3*100)+(G3*E3*50)</f>
         <v>3000</v>
       </c>
     </row>
@@ -2747,7 +2967,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>71</v>
@@ -2775,7 +2995,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>71</v>
@@ -2783,11 +3003,11 @@
       <c r="C19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
+      <c r="D19" s="9">
+        <v>1</v>
       </c>
       <c r="E19" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>114</v>
@@ -2798,12 +3018,12 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>71</v>
@@ -2811,11 +3031,11 @@
       <c r="C20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
       <c r="E20" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>114</v>
@@ -2826,48 +3046,48 @@
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>3900</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
+      <c r="D21" s="10">
+        <v>0</v>
       </c>
       <c r="E21" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>4200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>0</v>
       </c>
       <c r="E22" s="27">
@@ -2878,16 +3098,16 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>71</v>
@@ -2915,7 +3135,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>71</v>
@@ -2943,63 +3163,63 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>71</v>
@@ -3011,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>114</v>
@@ -3022,12 +3242,12 @@
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>71</v>
@@ -3039,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>114</v>
@@ -3050,12 +3270,12 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>3300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>71</v>
@@ -3064,7 +3284,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="27">
         <v>0</v>
@@ -3078,12 +3298,12 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>71</v>
@@ -3092,7 +3312,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="27">
         <v>0</v>
@@ -3106,12 +3326,12 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>71</v>
@@ -3120,10 +3340,10 @@
         <v>73</v>
       </c>
       <c r="D31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>114</v>
@@ -3134,12 +3354,12 @@
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>71</v>
@@ -3151,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>114</v>
@@ -3162,26 +3382,26 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>4200</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="27">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D33" s="23">
+        <v>0</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>114</v>
       </c>
       <c r="G33" s="11">
@@ -3190,69 +3410,67 @@
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>3900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="23">
-        <v>0</v>
-      </c>
-      <c r="E34" s="28">
-        <v>0</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>114</v>
-      </c>
+      <c r="A34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>46200</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>146</v>
@@ -3261,42 +3479,42 @@
         <v>1</v>
       </c>
       <c r="E36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>57600</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>39000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3304,62 +3522,62 @@
         <v>9</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D38" s="26">
         <v>0</v>
       </c>
       <c r="E38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="11">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="26">
         <v>0</v>
       </c>
       <c r="E39" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>39600</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D40" s="26">
         <v>0</v>
@@ -3370,11 +3588,11 @@
       <c r="F40" s="1"/>
       <c r="G40" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>48000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3382,10 +3600,10 @@
         <v>15</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="26">
         <v>0</v>
@@ -3396,19 +3614,19 @@
       <c r="F41" s="1"/>
       <c r="G41" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>146</v>
@@ -3422,16 +3640,16 @@
       <c r="F42" s="1"/>
       <c r="G42" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>145</v>
@@ -3457,7 +3675,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>145</v>
@@ -3477,32 +3695,6 @@
         <v>48</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="26">
-        <v>0</v>
-      </c>
-      <c r="E45" s="26">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="11">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H45" s="7">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
@@ -3514,6 +3706,674 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A2" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A3" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="35">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A4" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A5" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A6" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A7" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A8" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1300</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A9" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1400</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A10" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A11" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A12" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A13" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A14" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="41">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A15" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A16" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1300</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1300</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A17" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="34">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A18" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="40">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="39">
+        <v>0</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A20" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="41">
+        <v>1300</v>
+      </c>
+      <c r="D20" s="42">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A21" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="44">
+        <v>1400</v>
+      </c>
+      <c r="D21" s="45">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A22" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A23" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A24" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A25" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A26" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A27" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="39">
+        <v>1300</v>
+      </c>
+      <c r="D27" s="40">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1300</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A29" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0</v>
+      </c>
+      <c r="D29" s="40">
+        <v>0</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A30" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0</v>
+      </c>
+      <c r="D30" s="40">
+        <v>0</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A31" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="39">
+        <v>1200</v>
+      </c>
+      <c r="D31" s="40">
+        <v>1200</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A32" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A33" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="39">
+        <v>1400</v>
+      </c>
+      <c r="D33" s="40">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="39">
+        <v>1300</v>
+      </c>
+      <c r="D34" s="40">
+        <v>1300</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A35" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
